--- a/testPOI/formula.xlsx
+++ b/testPOI/formula.xlsx
@@ -23,31 +23,31 @@
     <t>Total =</t>
   </si>
   <si>
-    <t>SUM(C2:C3)</t>
+    <t>SUM(B1:B2)</t>
   </si>
   <si>
     <t>POWER =</t>
   </si>
   <si>
-    <t>POWER(C2,C3)</t>
+    <t>POWER(B1,B2)</t>
   </si>
   <si>
     <t>MAX =</t>
   </si>
   <si>
-    <t>MAX(C2,C3)</t>
+    <t>MAX(B1，B2)</t>
   </si>
   <si>
     <t>FACT =</t>
   </si>
   <si>
-    <t>FACT(C3)</t>
+    <t>FACT(B2)</t>
   </si>
   <si>
     <t>SQRT =</t>
   </si>
   <si>
-    <t>SQRT(C5)</t>
+    <t>SQRT(B4)</t>
   </si>
 </sst>
 </file>
@@ -92,85 +92,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2">
-      <c r="B2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B1" t="n">
         <v>2.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="B2" t="n">
         <v>4.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <f>SUM(C2:C3)</f>
+      <c r="B3" t="n">
+        <f>SUM(B1:B2)</f>
         <v>6.0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <f>POWER(C2,C3)</f>
+      <c r="B4" t="n">
+        <f>POWER(B1,B2)</f>
         <v>16.0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <f>MAX(C2,C3)</f>
+      <c r="B5" t="n">
+        <f>MAX(B1,B2)</f>
         <v>4.0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <f>FACT(C3)</f>
+      <c r="B6" t="n">
+        <f>FACT(B2)</f>
         <v>24.0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <f>SQRT(C5)</f>
+      <c r="B7" t="n">
+        <f>SQRT(B4)</f>
         <v>4.0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
